--- a/DATA/AGIO_stock_data.xlsx
+++ b/DATA/AGIO_stock_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2619"/>
+  <dimension ref="A1:G2620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60690,6 +60690,29 @@
         <v>788500</v>
       </c>
     </row>
+    <row r="2620">
+      <c r="A2620" s="2" t="n">
+        <v>45275</v>
+      </c>
+      <c r="B2620" t="n">
+        <v>23.45999908447266</v>
+      </c>
+      <c r="C2620" t="n">
+        <v>23.79000091552734</v>
+      </c>
+      <c r="D2620" t="n">
+        <v>22.93000030517578</v>
+      </c>
+      <c r="E2620" t="n">
+        <v>23.23999977111816</v>
+      </c>
+      <c r="F2620" t="n">
+        <v>23.23999977111816</v>
+      </c>
+      <c r="G2620" t="n">
+        <v>1025300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
